--- a/參數/參數表(人工建立).xlsx
+++ b/參數/參數表(人工建立).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSIC\Documents\GitHub\DobotM1Project\參數\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Documents\GitHub\DobotM1Project\參數\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B325BBE9-F518-4ADA-9295-E0EAFFC0263E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD6C9DB-FB79-4ED9-B90F-B140DDC89EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{58E1C175-1FFF-4BEF-A5AD-FC1CEAEB37F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58E1C175-1FFF-4BEF-A5AD-FC1CEAEB37F4}"/>
   </bookViews>
   <sheets>
     <sheet name="CASE" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,6 +122,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
@@ -151,11 +158,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED151DEE-2F8F-47BC-8426-F7D60431D683}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -552,6 +565,27 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>42</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>14</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
@@ -560,6 +594,24 @@
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
@@ -568,9 +620,34 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>42</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>23</v>
+      </c>
       <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -583,7 +660,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -635,6 +712,24 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
@@ -643,6 +738,24 @@
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>44</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>17</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
@@ -650,6 +763,24 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>14</v>
@@ -666,7 +797,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:A4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -722,6 +853,24 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>42</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
@@ -730,6 +879,24 @@
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>47</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>19</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
@@ -737,6 +904,24 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>47</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>19</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>14</v>
